--- a/exports/12.xlsx
+++ b/exports/12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Banque</t>
   </si>
@@ -38,15 +38,6 @@
   </si>
   <si>
     <t>Sens</t>
-  </si>
-  <si>
-    <t>17/51</t>
-  </si>
-  <si>
-    <t>rafe52018 Iner7952001-2018 200 ssr200 624-2018 1960036696) 70000 rz200 a aeezo1e suschargeeaocTi79¢C17+ 770 119420 csreien oaey2018 \ ups/menarza189sasso/tio sunso so000 160420</t>
-  </si>
-  <si>
-    <t>Cr</t>
   </si>
 </sst>
 </file>
@@ -378,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,17 +409,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
